--- a/biology/Médecine/Tu_enfanteras_sans_douleur/Tu_enfanteras_sans_douleur.xlsx
+++ b/biology/Médecine/Tu_enfanteras_sans_douleur/Tu_enfanteras_sans_douleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tu enfanteras sans douleur est un film documentaire français réalisé par Henri Fabiani, sorti en 1956. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Documentaire réalisé pour la Sécurité sociale.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Tu enfanteras sans douleur
 Réalisation : Henri Fabiani
@@ -553,7 +569,7 @@
 Genre : Documentaire
 Durée : 26 min
 Date de sortie :
-France - 31 octobre 1956[1]</t>
+France - 31 octobre 1956</t>
         </is>
       </c>
     </row>
